--- a/ToolsAndScripts/InvoiceGeneration Workflow.xlsx
+++ b/ToolsAndScripts/InvoiceGeneration Workflow.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FCDC74-0D74-4F4D-8F22-ED0B349ADCE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA45471-33B7-45D5-A895-1A7D98D67B5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9108" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="generatedInvoices" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Telcobright Program</t>
   </si>
@@ -46,9 +47,6 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>InvoiceData</t>
-  </si>
-  <si>
     <t>Section-1</t>
   </si>
   <si>
@@ -83,6 +81,102 @@
   </si>
   <si>
     <t>void GenerateInvoice(object Data)</t>
+  </si>
+  <si>
+    <t>BillingPeriod:</t>
+  </si>
+  <si>
+    <t>InvoiceData:</t>
+  </si>
+  <si>
+    <t>CompanyName:</t>
+  </si>
+  <si>
+    <t>Address:</t>
+  </si>
+  <si>
+    <t>VatRegNo:</t>
+  </si>
+  <si>
+    <t>TimeZone:</t>
+  </si>
+  <si>
+    <t>(dictionary of string,string)</t>
+  </si>
+  <si>
+    <t>Class InvoiceSectionData</t>
+  </si>
+  <si>
+    <t>String TemplateName</t>
+  </si>
+  <si>
+    <t>String SerializedData</t>
+  </si>
+  <si>
+    <t>JsonDetail</t>
+  </si>
+  <si>
+    <t>InvoiceId</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>DueDate</t>
+  </si>
+  <si>
+    <t>View Invoice</t>
+  </si>
+  <si>
+    <t>Intl outgoing</t>
+  </si>
+  <si>
+    <t>Banglalink</t>
+  </si>
+  <si>
+    <t>BDT</t>
+  </si>
+  <si>
+    <t>Section-1, Section-2, Section-2</t>
+  </si>
+  <si>
+    <t>Each section will have a hyperlink</t>
+  </si>
+  <si>
+    <t>work flow:</t>
+  </si>
+  <si>
+    <t>pageload:</t>
+  </si>
+  <si>
+    <t>get all invoices, for now without paging</t>
+  </si>
+  <si>
+    <t>context.invoices.include(i=&gt;i.invoice_item).ToList()</t>
+  </si>
+  <si>
+    <t>populate each row with basic information e.g duedate, amount with help of JsonDetail in invoice_item.single(); invoice_item.json detail is dictionary&lt;string,string&gt;</t>
+  </si>
+  <si>
+    <t>also populate sections by looing throug the dictionary</t>
+  </si>
+  <si>
+    <t>dic.keys.where(c=&gt;k=&gt;k.startsWith("section-"))</t>
+  </si>
+  <si>
+    <t>each key starting with secion will give a name of a typed invoiceTemplate</t>
+  </si>
+  <si>
+    <t>when link clicked for view, invoice, invoice_item will be passed to a helper class e.g. InvoiceHelper</t>
+  </si>
+  <si>
+    <t>invoice helper will instantiate a concrete type of IInvoiceTemplate using the key name, this will be done through MEF composition, I will help</t>
+  </si>
+  <si>
+    <t>Json detail will be passed as object to Iinvoice.GenerateInvoice(object data)</t>
   </si>
 </sst>
 </file>
@@ -118,8 +212,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,15 +495,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N23"/>
+  <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -418,7 +514,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -426,12 +522,12 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -451,12 +547,12 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -476,52 +572,216 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G16" t="s">
+    <row r="23" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G17" t="s">
+    <row r="24" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F18" t="s">
+    <row r="25" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G19" t="s">
+    <row r="26" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F21" t="s">
+    <row r="28" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G23" t="s">
-        <v>11</v>
+    <row r="29" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF719C7-5A7B-4BD2-A6B8-862F6C37ACDB}">
+  <dimension ref="B2:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>1200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1">
+        <v>43102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
